--- a/data/Alumni-Engagement-Market-Research-Master-List.xlsx
+++ b/data/Alumni-Engagement-Market-Research-Master-List.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="358">
   <si>
     <t>StartDate</t>
   </si>
@@ -834,6 +834,274 @@
   </si>
   <si>
     <t>Alumni engagement has moved online and we have invested in our platforms to support our engagement strategic priorities.</t>
+  </si>
+  <si>
+    <t>R_27CLuUM5UNL7CdU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Career Services office uses it and offers to alums. No experience using it.
+</t>
+  </si>
+  <si>
+    <t>Banner/Ellucian</t>
+  </si>
+  <si>
+    <t>Self Service is very easy to use</t>
+  </si>
+  <si>
+    <t>digging deeper into profiles is hard if you don't know the IDs</t>
+  </si>
+  <si>
+    <t>Our communication is more important than ever before. Social media is huge for us, along with our weekly electronic newsletter</t>
+  </si>
+  <si>
+    <t>R_2R9r9lAqYgudxWL</t>
+  </si>
+  <si>
+    <t>Evertrue,Graduway,Handshake</t>
+  </si>
+  <si>
+    <t>Quick look ups- email right away- location finders</t>
+  </si>
+  <si>
+    <t>main reliance on social media</t>
+  </si>
+  <si>
+    <t>R_2xyFiSqOWfE6JDW</t>
+  </si>
+  <si>
+    <t>PeopleGrove</t>
+  </si>
+  <si>
+    <t>Connecting alumni and students.</t>
+  </si>
+  <si>
+    <t>As like others, moving so many activities virtual.</t>
+  </si>
+  <si>
+    <t>R_yryqIZPyPSEbnc5</t>
+  </si>
+  <si>
+    <t>all virtual</t>
+  </si>
+  <si>
+    <t>R_1PdTmpvrTPxQOfG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinking creatively to still engage our graduates even though we can not meet in person. </t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>R_1pmrD1tX2PoHrBC</t>
+  </si>
+  <si>
+    <t>R_2ZCxMG6iTOUOvDj</t>
+  </si>
+  <si>
+    <t>Lack of or slow product development</t>
+  </si>
+  <si>
+    <t>Hosted one virtual alumni event for the first time, exploring others</t>
+  </si>
+  <si>
+    <t>R_11hgw1Z8nyDlXgr</t>
+  </si>
+  <si>
+    <t>$10B - $15B</t>
+  </si>
+  <si>
+    <t>R_3Pc7ofPUvQHylv5</t>
+  </si>
+  <si>
+    <t>Blackbaud,Handshake,Other</t>
+  </si>
+  <si>
+    <t>R_1lxYZO42xAFntCF</t>
+  </si>
+  <si>
+    <t>user friendly</t>
+  </si>
+  <si>
+    <t>Service and support</t>
+  </si>
+  <si>
+    <t>R_24IRIuIU0O85qIw</t>
+  </si>
+  <si>
+    <t>Blackbaud,Evertrue,PeopleGrove</t>
+  </si>
+  <si>
+    <t>R_RVbkreD6TgxJMlP</t>
+  </si>
+  <si>
+    <t>Looking at virtual engagement more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have gone exclusively Virtual. </t>
+  </si>
+  <si>
+    <t>Greater investment in online platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appreciating the value that platforms like Evertru and Graduway offer to help with strategy in connecting with our alumni base, now that it is entirely virtual. </t>
+  </si>
+  <si>
+    <t>R_2qmWDgXxbiSV1v8</t>
+  </si>
+  <si>
+    <t>We are refreshing our career-focused engagement strategies responsive to alumni needs.  We are also adapting to a virtual world of new opportunities in which geographic barriers are no longer barriers!</t>
+  </si>
+  <si>
+    <t>R_31hmp4PpEwmbOd3</t>
+  </si>
+  <si>
+    <t>mentoring and directory</t>
+  </si>
+  <si>
+    <t>glitches, reporting, and the mobile app</t>
+  </si>
+  <si>
+    <t>All virtual events</t>
+  </si>
+  <si>
+    <t>R_1QDyh7lJ16HDxQU</t>
+  </si>
+  <si>
+    <t>imodules, Ellucian, crowdfunding</t>
+  </si>
+  <si>
+    <t>organization and data pulls</t>
+  </si>
+  <si>
+    <t>Variety of software with functionality that is too specific. Doesn't integrate. A foundation like ours does not have the financial means to purchase software for specific purposes.</t>
+  </si>
+  <si>
+    <t>All remote engagement. Has accelerated our usage of technology and allowed us to reach more people. However, it is not a substitute for in-person relationship-building.</t>
+  </si>
+  <si>
+    <t>R_sZHa54SsiFu3sZj</t>
+  </si>
+  <si>
+    <t>IModules</t>
+  </si>
+  <si>
+    <t>Easy to use and the university is willing to pay for it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not transfer data to fundraising platform </t>
+  </si>
+  <si>
+    <t>Everything is now online with virtual events. No face-to-face events.</t>
+  </si>
+  <si>
+    <t>R_vNpvIIAYuM2eu7n</t>
+  </si>
+  <si>
+    <t>R_2CODlqdDYcHUBvF</t>
+  </si>
+  <si>
+    <t>Event management - user experience - hard to get information out</t>
+  </si>
+  <si>
+    <t>Platform, easy to get information</t>
+  </si>
+  <si>
+    <t>Virtual engagement - growing participation gifts through virtual experiences</t>
+  </si>
+  <si>
+    <t>R_2Wu4OWbv46KnZ9R</t>
+  </si>
+  <si>
+    <t>Evertrue,Handshake,PeopleGrove,Other</t>
+  </si>
+  <si>
+    <t>too little flexibility / insufficient capability to track data</t>
+  </si>
+  <si>
+    <t>R_30wq3SmkptTCZ0p</t>
+  </si>
+  <si>
+    <t>Blackbaud,Evertrue,Handshake,Other</t>
+  </si>
+  <si>
+    <t>All virtual</t>
+  </si>
+  <si>
+    <t>R_1QGarkvFnZQcv81</t>
+  </si>
+  <si>
+    <t>Blackbaud,Evertrue,Handshake</t>
+  </si>
+  <si>
+    <t>21-40</t>
+  </si>
+  <si>
+    <t>R_3qyhj7W083X7w1U</t>
+  </si>
+  <si>
+    <t>tools to help with students and alumni connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having more virtual opportunities which are much cheaper and has more scalability </t>
+  </si>
+  <si>
+    <t>R_3QYu8eTPFVd4Eub</t>
+  </si>
+  <si>
+    <t>Prior to COVID we had almost no virtual engagement opportunities.  We have since moved to multiple online events both from alumni assoc and also colleges/units.</t>
+  </si>
+  <si>
+    <t>R_3JfMKjGiorEhSNP</t>
+  </si>
+  <si>
+    <t>70%+</t>
+  </si>
+  <si>
+    <t>Handshake,PeopleGrove</t>
+  </si>
+  <si>
+    <t>Not directly in charge of this program.</t>
+  </si>
+  <si>
+    <t>networking, group engagement</t>
+  </si>
+  <si>
+    <t>Lack of flexibility with administrative tools, reporting, limited opportunities in some sections.unclear communication.</t>
+  </si>
+  <si>
+    <t>We are completely virtual and struggling with "Zoom Fatique", lack of in-person interactions for both engagement and fundraising activities</t>
+  </si>
+  <si>
+    <t>R_D0rftvoe1TJYRyh</t>
+  </si>
+  <si>
+    <t>R_12c1kLw8Vy4CIVB</t>
+  </si>
+  <si>
+    <t>Wisr</t>
+  </si>
+  <si>
+    <t>R_3qLQpMd4VSmWQPT</t>
+  </si>
+  <si>
+    <t>$15B+</t>
+  </si>
+  <si>
+    <t>60% - 70%</t>
+  </si>
+  <si>
+    <t>R_2xPeRPRT80iBEOb</t>
+  </si>
+  <si>
+    <t>R_3KBoMuVxqtvDuRQ</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -1159,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX23"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3500,13 +3768,13 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44138.503692129627</v>
+        <v>44145.412002314813</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="1">
-        <v>44138.505358796298</v>
+        <v>44145.414270833331</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>95</v>
@@ -3515,16 +3783,16 @@
         <v>100</v>
       </c>
       <c r="F16">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H16" s="1">
-        <v>44138.505369085651</v>
+        <v>44145.414275578703</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>98</v>
@@ -3542,13 +3810,13 @@
         <v>102</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>109</v>
@@ -3578,13 +3846,13 @@
         <v>109</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>109</v>
@@ -3623,39 +3891,42 @@
         <v>109</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="AQ16" s="2" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44138.49832175926</v>
+        <v>44145.414548611108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="1">
-        <v>44138.542812500003</v>
+        <v>44145.416134259256</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>95</v>
@@ -3664,16 +3935,16 @@
         <v>100</v>
       </c>
       <c r="F17">
-        <v>3843</v>
+        <v>137</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="1">
-        <v>44138.542819212962</v>
+        <v>44145.416149826386</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>98</v>
@@ -3685,40 +3956,40 @@
         <v>100</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>109</v>
@@ -3730,19 +4001,19 @@
         <v>110</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="AG17" s="2" t="s">
         <v>109</v>
@@ -3784,7 +4055,7 @@
         <v>109</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AU17" s="2" t="s">
         <v>217</v>
@@ -3793,18 +4064,21 @@
         <v>133</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44138.587627314817</v>
+        <v>44145.421539351853</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1">
-        <v>44138.599108796298</v>
+        <v>44145.424270833333</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>95</v>
@@ -3813,16 +4087,16 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <v>991</v>
+        <v>235</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H18" s="1">
-        <v>44138.599111863427</v>
+        <v>44145.424278391205</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>98</v>
@@ -3834,19 +4108,19 @@
         <v>100</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>109</v>
@@ -3885,10 +4159,10 @@
         <v>109</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="AF18" s="2" t="s">
         <v>109</v>
@@ -3912,13 +4186,13 @@
         <v>109</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="AP18" s="2" t="s">
         <v>109</v>
@@ -3939,21 +4213,24 @@
         <v>119</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="AW18" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="AX18" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44138.58798611111</v>
+        <v>44145.44903935185</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="1">
-        <v>44138.603900462964</v>
+        <v>44145.450173611112</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>95</v>
@@ -3962,16 +4239,16 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <v>1374</v>
+        <v>98</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="1">
-        <v>44138.60390292824</v>
+        <v>44145.450186192131</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>98</v>
@@ -3986,52 +4263,52 @@
         <v>136</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>155</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>109</v>
@@ -4082,27 +4359,30 @@
         <v>109</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44139.400277777779</v>
+        <v>44138.503946759258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="1">
-        <v>44139.405081018522</v>
+        <v>44145.462407407409</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>95</v>
@@ -4111,16 +4391,16 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <v>414</v>
+        <v>601211</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H20" s="1">
-        <v>44139.405092893518</v>
+        <v>44145.462420763892</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>98</v>
@@ -4129,25 +4409,25 @@
         <v>99</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>109</v>
@@ -4183,10 +4463,10 @@
         <v>109</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="AF20" s="2" t="s">
         <v>109</v>
@@ -4219,16 +4499,16 @@
         <v>109</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="AT20" s="2" t="s">
         <v>170</v>
@@ -4237,42 +4517,42 @@
         <v>119</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44139.449259259258</v>
+        <v>44138.485173611109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C21" s="1">
-        <v>44139.457546296297</v>
+        <v>44138.486157407409</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>716</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="H21" s="1">
-        <v>44139.457559861112</v>
+        <v>44145.486188946757</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>98</v>
@@ -4284,28 +4564,28 @@
         <v>100</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>247</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>109</v>
@@ -4317,19 +4597,19 @@
         <v>109</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>109</v>
@@ -4371,42 +4651,42 @@
         <v>109</v>
       </c>
       <c r="AP21" s="2" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>255</v>
+        <v>109</v>
       </c>
       <c r="AT21" s="2" t="s">
         <v>109</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AX21" s="2" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44140.374479166669</v>
+        <v>44145.488657407404</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C22" s="1">
-        <v>44140.414270833331</v>
+        <v>44145.490266203706</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>95</v>
@@ -4415,16 +4695,16 @@
         <v>100</v>
       </c>
       <c r="F22">
-        <v>3438</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="1">
-        <v>44140.41428474537</v>
+        <v>44145.490275578704</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>98</v>
@@ -4436,28 +4716,28 @@
         <v>126</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>109</v>
@@ -4469,13 +4749,13 @@
         <v>109</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>109</v>
@@ -4535,48 +4815,48 @@
         <v>109</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="AX22" s="2" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44138.628009259257</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>262</v>
+        <v>44138.491006944445</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C23" s="1">
-        <v>44138.633113425924</v>
+        <v>44138.491898148146</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F23">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="H23" s="1">
-        <v>44138.633119398146</v>
+        <v>44145.492173923609</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>98</v>
@@ -4585,128 +4865,4536 @@
         <v>99</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44138.521701388891</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44138.523460648146</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>152</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44145.523595659724</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44138.630636574075</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44138.633831018517</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>276</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44145.638641481484</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44139.275081018517</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44139.278437499997</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>290</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44146.278514444442</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44147.436979166669</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44147.44023148148</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>281</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44147.440240925927</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44138.503692129627</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44138.505358796298</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>144</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44138.505369085651</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44138.49832175926</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44138.542812500003</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>3843</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44138.542819212962</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44138.587627314817</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44138.599108796298</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>991</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44138.599111863427</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44138.58798611111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44138.603900462964</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>1374</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44138.60390292824</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX31" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44144.55259259259</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44144.556875000002</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>370</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44144.556885625003</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44144.639236111114</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44144.641006944446</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>153</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44144.641019849536</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX33" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44144.663784722223</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44144.694282407407</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>2635</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44144.694295416666</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR34" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AS34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX34" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44145.407476851855</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44145.410300925927</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>244</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44145.410315578702</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AS35" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX35" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44138.642824074072</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44138.643854166665</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36">
+        <v>87</v>
+      </c>
+      <c r="F36">
+        <v>89</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44145.644034710647</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44139.400277777779</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44139.405081018522</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>414</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44139.405092893518</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX37" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44143.782094907408</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44143.785127314812</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>262</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44143.785138749998</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX38" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44138.496458333335</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44138.498796296299</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39">
+        <v>87</v>
+      </c>
+      <c r="F39">
+        <v>201</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44145.498812164355</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44139.449259259258</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44139.457546296297</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>716</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44139.457559861112</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX40" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44140.374479166669</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44140.414270833331</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>3438</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44140.41428474537</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX41" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44145.364872685182</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44145.370486111111</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>484</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44145.370492060189</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU42" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX42" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44138.48878472222</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44138.490243055552</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44145.490395462963</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44144.415289351855</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44144.422199074077</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>597</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44144.422210023149</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX44" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44147.431608796294</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44147.434050925927</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>210</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44147.434057118058</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX45" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44148.426412037035</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44148.436203703706</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>846</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44148.436215092595</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX46" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="45" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44138.628009259257</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44138.633113425924</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>440</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44138.633119398146</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P47" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
+      <c r="R47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK23" s="2" t="s">
+      <c r="AK47" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AL23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP23" s="2" t="s">
+      <c r="AL47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP47" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AQ23" s="2" t="s">
+      <c r="AQ47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AR23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU23" s="2" t="s">
+      <c r="AR47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU47" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AV23" s="2" t="s">
+      <c r="AV47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AW23" s="2" t="s">
+      <c r="AW47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AX23" s="2" t="s">
+      <c r="AX47" s="2" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44144.589247685188</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44144.590775462966</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>131</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44144.590786400462</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX48" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44133.448425925926</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44138.475462962961</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>437936</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44145.475614178242</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX49" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44138.543622685182</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44138.54587962963</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>195</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44145.54632321759</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX50" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44140.59710648148</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44140.597974537035</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>74</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H51" s="1">
+        <v>44147.598268020833</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44143.363854166666</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44143.366226851853</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52">
+        <v>87</v>
+      </c>
+      <c r="F52">
+        <v>204</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44150.366668518516</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX52" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AX16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D15 G1:G15 I1:I15 J1:J15 K1:K15 L1:L15 M1:M15 N1:N15 O1:O15 P1:P15 Q1:Q15 R1:R15 S1:S15 T1:T15 U1:U15 V1:V15 W1:W15 X1:X15 Y1:Y15 Z1:Z15 AA1:AA15 AB1:AB15 AC1:AC15 AD1:AD15 AE1:AE15 AF1:AF15 AG1:AG15 AH1:AH15 AI1:AI15 AJ1:AJ15 AK1:AK15 AL1:AL15 AM1:AM15 AN1:AN15 AO1:AO15 AP1:AP15 AQ1:AQ15 AR1:AR15 AS1:AS15 AT1:AT15 AU1:AU15 AV1:AV15 AW1:AW15 AX1:AX15" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:D2 G1:G2 I1:I2 J1:J2 K1:K2 L1:L2 M1:M2 N1:N2 O1:O2 P1:P2 Q1:Q2 R1:R2 S1:S2 T1:T2 U1:U2 V1:V2 W1:W2 X1:X2 Y1:Y2 Z1:Z2 AA1:AA2 AB1:AB2 AC1:AC2 AD1:AD2 AE1:AE2 AF1:AF2 AG1:AG2 AH1:AH2 AI1:AI2 AJ1:AJ2 AK1:AK2 AL1:AL2 AM1:AM2 AN1:AN2 AO1:AO2 AP1:AP2 AQ1:AQ2 AR1:AR2 AS1:AS2 AT1:AT2 AU1:AU2 AV1:AV2 AW1:AW2 AX1:AX2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>